--- a/biology/Histoire de la zoologie et de la botanique/Ernest_Petit_(botaniste)/Ernest_Petit_(botaniste).xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Ernest_Petit_(botaniste)/Ernest_Petit_(botaniste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ernest Marie Antoine Petit, né le 18 novembre 1927 à Tielt et mort le 20 avril 2007 à Meise, est un botaniste belge, ancien directeur du Jardin botanique national de Belgique.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ernest Petit naît à Tielt le 18 novembre 1927. Après des études d'agronomie et de botanique à l'université de Louvain entre 1946 et 1951, il effectue toute sa carrière au Jardin botanique national à partir de mai 1953. Il soutient une thèse de doctorat en sciences (botanique) à l'université de Louvain en 1964[1].
-Ernest Petit enseigne de 1971 à 1989 la systématique et la phytogéographie à l'université de Louvain[2].
-Il est directeur du Jardin botanique de 1976 à 1991[3]. Il meurt le 20 avril 2007 à son domicile de Meise.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ernest Petit naît à Tielt le 18 novembre 1927. Après des études d'agronomie et de botanique à l'université de Louvain entre 1946 et 1951, il effectue toute sa carrière au Jardin botanique national à partir de mai 1953. Il soutient une thèse de doctorat en sciences (botanique) à l'université de Louvain en 1964.
+Ernest Petit enseigne de 1971 à 1989 la systématique et la phytogéographie à l'université de Louvain.
+Il est directeur du Jardin botanique de 1976 à 1991. Il meurt le 20 avril 2007 à son domicile de Meise.
 </t>
         </is>
       </c>
